--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -5,16 +5,16 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_FULL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBF9CFC-438D-4B79-B395-3F82A3EE1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE742E5F-F84F-4B2D-BD76-F4B2AA4FD210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14148" yWindow="2760" windowWidth="31452" windowHeight="15468" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2784" yWindow="1932" windowWidth="12660" windowHeight="11028" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BALANCE" sheetId="142" r:id="rId1"/>
-    <sheet name="SEC_Comm" sheetId="112" r:id="rId2"/>
+    <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
+    <sheet name="BALANCE" sheetId="142" r:id="rId2"/>
     <sheet name="SEC_Processes" sheetId="140" r:id="rId3"/>
     <sheet name="FINAL_DEMAD_PRC" sheetId="139" r:id="rId4"/>
     <sheet name="DEMAND" sheetId="128" r:id="rId5"/>
@@ -600,7 +600,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="178">
   <si>
     <t>Moc osiągalna elektryczna netto</t>
   </si>
@@ -1249,6 +1249,9 @@
   <si>
     <t>Copy from ELC</t>
   </si>
+  <si>
+    <t>TU NIC NIE MODYFIKUJEMY</t>
+  </si>
 </sst>
 </file>
 
@@ -1260,7 +1263,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000___)"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1420,6 +1423,12 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1784,7 +1793,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1982,6 +1991,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1996,10 +2008,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny_S301-339-05" xfId="6" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
     <cellStyle name="Normalny_T206" xfId="5" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
     <cellStyle name="Per cent 2" xfId="3" xr:uid="{DDC5681C-F033-4AC5-9897-895307FDA964}"/>
@@ -2644,6 +2656,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="B7" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B11" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+    </row>
+    <row r="20" spans="4:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D18:G20"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C743E0-1E87-45A7-98CA-E678762B7428}">
   <dimension ref="B2:J50"/>
   <sheetViews>
@@ -3265,232 +3525,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B11" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="82"/>
-    </row>
-    <row r="20" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3677,11 +3711,11 @@
       <c r="J9" s="35"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="60" t="s">
@@ -3987,31 +4021,31 @@
       <c r="B6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
     </row>
     <row r="7" spans="2:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="str">
@@ -4068,10 +4102,10 @@
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="98"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
